--- a/1.0.0/web/Uploads/Customer/customer_template.xlsx
+++ b/1.0.0/web/Uploads/Customer/customer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/fdx_crm/1.0.0/web/Uploads/Customer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA753B90-6E07-4541-B803-7FDE14D2AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E229E273-6FAE-F741-9EDF-3161E9893BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27400" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,18 +98,9 @@
     <t>备注</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
     <t>测试用户2</t>
   </si>
   <si>
-    <t>203</t>
-  </si>
-  <si>
     <t>测试用户3</t>
   </si>
   <si>
@@ -127,6 +129,18 @@
   </si>
   <si>
     <t>1231231232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,12 +204,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -206,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,13 +496,13 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
@@ -578,20 +589,20 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F2">
         <v>123123123</v>
@@ -599,8 +610,8 @@
       <c r="G2">
         <v>12312313123</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M2">
         <v>20000</v>
@@ -608,40 +619,40 @@
       <c r="N2" s="2">
         <v>42224</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>31</v>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="S2">
         <v>123123</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>27</v>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F3">
         <v>123123123</v>
@@ -649,8 +660,8 @@
       <c r="G3">
         <v>12312312312</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="M3">
         <v>20001</v>
@@ -658,23 +669,23 @@
       <c r="N3" s="2">
         <v>42225</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="S3">
         <v>123123</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>28</v>
+      <c r="U3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
